--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230808056</t>
+          <t>GSD230925022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ23880056-N002</t>
+          <t>BJ239Q0022-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230808061</t>
+          <t>GSD230925021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ23880061-N002</t>
+          <t>BJ239Q0021-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230808060</t>
+          <t>GSD230925025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ23880060-N002</t>
+          <t>BJ239Q0025-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230808059</t>
+          <t>GSD230925026</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ23880059-N002</t>
+          <t>BJ239Q0026-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230808058</t>
+          <t>GSD230925027</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ23880058-N002</t>
+          <t>BJ239Q0027-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230808057</t>
+          <t>GSD230925029</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ23880057-N002</t>
+          <t>BJ239Q0029-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230808065</t>
+          <t>GSD230925028</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ23880065-N002</t>
+          <t>BJ239Q0028-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230808064</t>
+          <t>GSD230925024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ23880064-N002</t>
+          <t>BJ239Q0024-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230808063</t>
+          <t>GSD230925023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ23880063-N002</t>
+          <t>BJ239Q0023-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230808062</t>
+          <t>GSD230925030</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ23880062-N002</t>
+          <t>BJ239Q0030-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925022</t>
+          <t>GSD230926077</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239Q0022-N002</t>
+          <t>BJ239R0077-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925021</t>
+          <t>GSD230926080</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239Q0021-N002</t>
+          <t>BJ239R0080-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925025</t>
+          <t>GSD230926081</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239Q0025-N002</t>
+          <t>BJ239R0081-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925026</t>
+          <t>GSD230926084</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239Q0026-N002</t>
+          <t>BJ239R0084-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925027</t>
+          <t>GSD230926076</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239Q0027-N002</t>
+          <t>BJ239R0076-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230925029</t>
+          <t>GSD230926082</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ239Q0029-N002</t>
+          <t>BJ239R0082-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230925028</t>
+          <t>GSD230926085</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ239Q0028-N002</t>
+          <t>BJ239R0085-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230925024</t>
+          <t>GSD230926078</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ239Q0024-N002</t>
+          <t>BJ239R0078-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230925023</t>
+          <t>GSD230926083</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ239Q0023-N002</t>
+          <t>BJ239R0083-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230925030</t>
+          <t>GSD230926079</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ239Q0030-N002</t>
+          <t>BJ239R0079-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230926077</t>
+          <t>GSD231027022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239R0077-N002</t>
+          <t>BJ230S0022-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230926080</t>
+          <t>GSD231027024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239R0080-N002</t>
+          <t>BJ230S0024-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230926081</t>
+          <t>GSD231027023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239R0081-N002</t>
+          <t>BJ230S0023-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230926084</t>
+          <t>GSD231027027</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239R0084-N002</t>
+          <t>BJ230S0027-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230926076</t>
+          <t>GSD231027030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239R0076-N002</t>
+          <t>BJ230S0030-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230926082</t>
+          <t>GSD231027029</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ239R0082-N002</t>
+          <t>BJ230S0029-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230926085</t>
+          <t>GSD231027025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ239R0085-N002</t>
+          <t>BJ230S0025-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230926078</t>
+          <t>GSD231027026</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ239R0078-N002</t>
+          <t>BJ230S0026-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230926083</t>
+          <t>GSD231027021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ239R0083-N002</t>
+          <t>BJ230S0021-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230926079</t>
+          <t>GSD231027028</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ239R0079-N002</t>
+          <t>BJ230S0028-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD231027022</t>
+          <t>GSD240116032</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ230S0022-N002</t>
+          <t>BJ241F0035-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD231027024</t>
+          <t>GSD240116034</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ230S0024-N002</t>
+          <t>BJ241F0037-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD231027023</t>
+          <t>GSD240116025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ230S0023-N002</t>
+          <t>BJ241F0028-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD231027027</t>
+          <t>GSD240116033</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ230S0027-N002</t>
+          <t>BJ241F0036-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD231027030</t>
+          <t>GSD240116030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ230S0030-N002</t>
+          <t>BJ241F0033-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD231027029</t>
+          <t>GSD240116027</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ230S0029-N002</t>
+          <t>BJ241F0030-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD231027025</t>
+          <t>GSD240116029</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ230S0025-N002</t>
+          <t>BJ241F0032-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD231027026</t>
+          <t>GSD240116028</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ230S0026-N002</t>
+          <t>BJ241F0031-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD231027021</t>
+          <t>GSD240116031</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ230S0021-N002</t>
+          <t>BJ241F0034-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD231027028</t>
+          <t>GSD240116026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ230S0028-N002</t>
+          <t>BJ241F0029-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116032</t>
+          <t>GSD240116228</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241F0035-N002</t>
+          <t>BJ241F0226-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116034</t>
+          <t>GSD240116230</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241F0037-N002</t>
+          <t>BJ241F0228-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116025</t>
+          <t>GSD240116227</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241F0028-N002</t>
+          <t>BJ241F0225-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116033</t>
+          <t>GSD240116232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241F0036-N002</t>
+          <t>BJ241F0230-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240116030</t>
+          <t>GSD240116233</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241F0033-N002</t>
+          <t>BJ241F0231-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD240116027</t>
+          <t>GSD240116234</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BJ241F0030-N002</t>
+          <t>BJ241F0232-N002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -548,12 +548,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD240116029</t>
+          <t>GSD240116235</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BJ241F0032-N002</t>
+          <t>BJ241F0233-N002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,12 +565,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD240116028</t>
+          <t>GSD240116236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BJ241F0031-N002</t>
+          <t>BJ241F0234-N002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -582,12 +582,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD240116031</t>
+          <t>GSD240116229</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BJ241F0034-N002</t>
+          <t>BJ241F0227-N002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -599,12 +599,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD240116026</t>
+          <t>GSD240116231</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BJ241F0029-N002</t>
+          <t>BJ241F0229-N002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">

--- a/data/excel_doc/hstq_id_lims_dxk.xlsx
+++ b/data/excel_doc/hstq_id_lims_dxk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,176 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSD240116228</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BJ241F0226-N002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSD240116230</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BJ241F0228-N002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSD240116227</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BJ241F0225-N002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD240116232</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>BJ241F0230-N002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSD240116233</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BJ241F0231-N002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GSD240116234</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BJ241F0232-N002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GSD240116235</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BJ241F0233-N002</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GSD240116236</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BJ241F0234-N002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GSD240116229</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BJ241F0227-N002</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GSD240116231</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BJ241F0229-N002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>迪迅康-基础(8)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
